--- a/data/pca/factorExposure/factorExposure_2018-12-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.08266855171135326</v>
+        <v>0.05422106813739644</v>
       </c>
       <c r="C2">
-        <v>0.0497862219142209</v>
+        <v>-0.0292334305022241</v>
       </c>
       <c r="D2">
-        <v>-0.06228754330760353</v>
+        <v>-0.01492682765214133</v>
       </c>
       <c r="E2">
-        <v>-0.003968736888977979</v>
+        <v>0.03273344344730302</v>
       </c>
       <c r="F2">
-        <v>-0.1190594713765458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1109440814132463</v>
+      </c>
+      <c r="G2">
+        <v>0.07056215578354394</v>
+      </c>
+      <c r="H2">
+        <v>0.05662299992566202</v>
+      </c>
+      <c r="I2">
+        <v>-0.1150154852963648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1669336078933636</v>
+        <v>0.1276490152681857</v>
       </c>
       <c r="C3">
-        <v>-0.05725340648306649</v>
+        <v>-0.02813570969269764</v>
       </c>
       <c r="D3">
-        <v>-0.1242626327125779</v>
+        <v>-0.05699740726364399</v>
       </c>
       <c r="E3">
-        <v>0.04225436279581458</v>
+        <v>-0.04217702685853655</v>
       </c>
       <c r="F3">
-        <v>-0.3908085524840749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3668568444948115</v>
+      </c>
+      <c r="G3">
+        <v>0.2970548135111528</v>
+      </c>
+      <c r="H3">
+        <v>0.0430041258819453</v>
+      </c>
+      <c r="I3">
+        <v>-0.40027800201157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07543337264002659</v>
+        <v>0.05985780723896343</v>
       </c>
       <c r="C4">
-        <v>0.01524861160453674</v>
+        <v>-0.00653152869764048</v>
       </c>
       <c r="D4">
-        <v>-0.05897289402381203</v>
+        <v>-0.04410300659133102</v>
       </c>
       <c r="E4">
-        <v>0.04871756830961811</v>
+        <v>0.04286842089781683</v>
       </c>
       <c r="F4">
-        <v>-0.06010887233046858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07040264314676915</v>
+      </c>
+      <c r="G4">
+        <v>0.02895423233679731</v>
+      </c>
+      <c r="H4">
+        <v>0.04193934519121124</v>
+      </c>
+      <c r="I4">
+        <v>-0.06760667827985843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.001566905752749903</v>
+        <v>0.02816871883908952</v>
       </c>
       <c r="C6">
-        <v>-0.0008398073595543154</v>
+        <v>-0.003763656082583727</v>
       </c>
       <c r="D6">
-        <v>0.001089805315551348</v>
+        <v>-0.01544015870446772</v>
       </c>
       <c r="E6">
-        <v>-0.001854537713490638</v>
+        <v>0.008860401919883406</v>
       </c>
       <c r="F6">
-        <v>0.002346275377782743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01454131110511708</v>
+      </c>
+      <c r="G6">
+        <v>-0.02506290563569301</v>
+      </c>
+      <c r="H6">
+        <v>-0.008078896306717756</v>
+      </c>
+      <c r="I6">
+        <v>-0.0102669175963447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03724857225643664</v>
+        <v>0.03167342475928724</v>
       </c>
       <c r="C7">
-        <v>0.01805635285359257</v>
+        <v>0.02526662565417626</v>
       </c>
       <c r="D7">
-        <v>-0.04069573635531036</v>
+        <v>-0.0258230966716765</v>
       </c>
       <c r="E7">
-        <v>0.003583389507033987</v>
+        <v>0.02551302200485045</v>
       </c>
       <c r="F7">
-        <v>-0.08276610663969493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05146878920742811</v>
+      </c>
+      <c r="G7">
+        <v>0.04620524627449171</v>
+      </c>
+      <c r="H7">
+        <v>-0.005168455763252548</v>
+      </c>
+      <c r="I7">
+        <v>-0.04997365089732893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03766806742993321</v>
+        <v>0.01583519390558846</v>
       </c>
       <c r="C8">
-        <v>-0.005941355826402586</v>
+        <v>-0.007410127821046765</v>
       </c>
       <c r="D8">
-        <v>-0.04832972074369653</v>
+        <v>-0.04012492177214627</v>
       </c>
       <c r="E8">
-        <v>0.044669344290825</v>
+        <v>0.01763526844256361</v>
       </c>
       <c r="F8">
-        <v>-0.07544888552268435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.06810109482691148</v>
+      </c>
+      <c r="G8">
+        <v>0.0566696048730549</v>
+      </c>
+      <c r="H8">
+        <v>0.0312957665216553</v>
+      </c>
+      <c r="I8">
+        <v>-0.06686370077583639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.06269145335820071</v>
+        <v>0.05127227514374019</v>
       </c>
       <c r="C9">
-        <v>0.02104395545454779</v>
+        <v>-9.875302690015519e-05</v>
       </c>
       <c r="D9">
-        <v>-0.04635187431638647</v>
+        <v>-0.03629030558082258</v>
       </c>
       <c r="E9">
-        <v>0.06044693666808434</v>
+        <v>0.03596239633899832</v>
       </c>
       <c r="F9">
-        <v>-0.05294297566161481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07599559845360963</v>
+      </c>
+      <c r="G9">
+        <v>0.03002628617304141</v>
+      </c>
+      <c r="H9">
+        <v>0.04425189615850976</v>
+      </c>
+      <c r="I9">
+        <v>-0.04345310319723405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03784174250107841</v>
+        <v>0.05565116326899427</v>
       </c>
       <c r="C10">
-        <v>0.06940522014336703</v>
+        <v>0.06093344456055001</v>
       </c>
       <c r="D10">
-        <v>0.126403323329344</v>
+        <v>0.150887249158121</v>
       </c>
       <c r="E10">
-        <v>-0.07784617136627006</v>
+        <v>-0.04985738706889793</v>
       </c>
       <c r="F10">
-        <v>-0.05257092219279803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04251999299271562</v>
+      </c>
+      <c r="G10">
+        <v>0.0343117404588064</v>
+      </c>
+      <c r="H10">
+        <v>0.03579603664731183</v>
+      </c>
+      <c r="I10">
+        <v>-0.02096861678806052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05029316786418425</v>
+        <v>0.04245142359896015</v>
       </c>
       <c r="C11">
-        <v>-0.001609744177267084</v>
+        <v>-0.02083134126336354</v>
       </c>
       <c r="D11">
-        <v>-0.02906217470957576</v>
+        <v>-0.02947059528543779</v>
       </c>
       <c r="E11">
-        <v>0.006594084474451591</v>
+        <v>0.01170798557607628</v>
       </c>
       <c r="F11">
-        <v>-0.05018530900301776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03886829961269065</v>
+      </c>
+      <c r="G11">
+        <v>0.0009904651128672354</v>
+      </c>
+      <c r="H11">
+        <v>0.0161045747268293</v>
+      </c>
+      <c r="I11">
+        <v>-0.04312215503259359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04168339728790429</v>
+        <v>0.0396877973348299</v>
       </c>
       <c r="C12">
-        <v>-0.002741525364424435</v>
+        <v>-0.008772676334525579</v>
       </c>
       <c r="D12">
-        <v>-0.02585123731555772</v>
+        <v>-0.03310567525224931</v>
       </c>
       <c r="E12">
-        <v>0.02593414507324222</v>
+        <v>0.01452131926079368</v>
       </c>
       <c r="F12">
-        <v>-0.04131327500848465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01813137098292623</v>
+      </c>
+      <c r="G12">
+        <v>0.005636475133119063</v>
+      </c>
+      <c r="H12">
+        <v>0.006687805465535018</v>
+      </c>
+      <c r="I12">
+        <v>-0.03121781966182893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.04512362586386263</v>
+        <v>0.03562544048303967</v>
       </c>
       <c r="C13">
-        <v>0.007577106084583196</v>
+        <v>-0.02376021590268192</v>
       </c>
       <c r="D13">
-        <v>-0.04275618245230892</v>
+        <v>-0.01175173758395191</v>
       </c>
       <c r="E13">
-        <v>-0.0161414262761124</v>
+        <v>0.008368087479056629</v>
       </c>
       <c r="F13">
-        <v>-0.1120040947469699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09119556875013682</v>
+      </c>
+      <c r="G13">
+        <v>0.04412652794549638</v>
+      </c>
+      <c r="H13">
+        <v>0.03080794173665631</v>
+      </c>
+      <c r="I13">
+        <v>-0.08307450885554049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02600409834811789</v>
+        <v>0.02107903955691508</v>
       </c>
       <c r="C14">
-        <v>0.01476700175609145</v>
+        <v>-0.003101083798318109</v>
       </c>
       <c r="D14">
-        <v>-0.04163722176911651</v>
+        <v>-0.01708826695973578</v>
       </c>
       <c r="E14">
-        <v>0.0168305928849214</v>
+        <v>0.02809790714888049</v>
       </c>
       <c r="F14">
-        <v>-0.03723451343593964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03844189296998081</v>
+      </c>
+      <c r="G14">
+        <v>0.06171132991602849</v>
+      </c>
+      <c r="H14">
+        <v>0.01140896223070717</v>
+      </c>
+      <c r="I14">
+        <v>-0.02398127570988251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04082314043545598</v>
+        <v>0.03601895812494333</v>
       </c>
       <c r="C16">
-        <v>-0.006970162651747178</v>
+        <v>-0.0152831156392068</v>
       </c>
       <c r="D16">
-        <v>-0.02668224908285038</v>
+        <v>-0.03108288760567311</v>
       </c>
       <c r="E16">
-        <v>0.0106252782437096</v>
+        <v>0.009651849477205737</v>
       </c>
       <c r="F16">
-        <v>-0.03943180655910589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03437633377100908</v>
+      </c>
+      <c r="G16">
+        <v>0.005310909199386554</v>
+      </c>
+      <c r="H16">
+        <v>0.007073759932728977</v>
+      </c>
+      <c r="I16">
+        <v>-0.0430443070453107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05699601750933668</v>
+        <v>0.04420338438317237</v>
       </c>
       <c r="C19">
-        <v>-0.01516521037715013</v>
+        <v>-0.02131544884453331</v>
       </c>
       <c r="D19">
-        <v>-0.04047469305583286</v>
+        <v>-0.03306857923693371</v>
       </c>
       <c r="E19">
-        <v>0.00651911672883779</v>
+        <v>0.01118764937604865</v>
       </c>
       <c r="F19">
-        <v>-0.09381129447864368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.088255358509369</v>
+      </c>
+      <c r="G19">
+        <v>0.05389474723983237</v>
+      </c>
+      <c r="H19">
+        <v>0.01880079023326759</v>
+      </c>
+      <c r="I19">
+        <v>-0.0868814161633133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.0173121966831781</v>
+        <v>0.01250437743598661</v>
       </c>
       <c r="C20">
-        <v>0.01035899075540922</v>
+        <v>-0.00378383469120201</v>
       </c>
       <c r="D20">
-        <v>-0.04053171676358169</v>
+        <v>-0.01728320942650452</v>
       </c>
       <c r="E20">
-        <v>0.03072889121216733</v>
+        <v>0.01808363910730662</v>
       </c>
       <c r="F20">
-        <v>-0.07268223606780677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.05918308269376982</v>
+      </c>
+      <c r="G20">
+        <v>0.06413901430963159</v>
+      </c>
+      <c r="H20">
+        <v>0.002023200374432148</v>
+      </c>
+      <c r="I20">
+        <v>-0.08213944992084583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01921957749461998</v>
+        <v>0.02683072670724566</v>
       </c>
       <c r="C21">
-        <v>-0.01207804619710349</v>
+        <v>0.0004677947903967189</v>
       </c>
       <c r="D21">
-        <v>-0.03439760709465654</v>
+        <v>-0.02435207332286701</v>
       </c>
       <c r="E21">
-        <v>0.005774775657220181</v>
+        <v>0.005270304182920747</v>
       </c>
       <c r="F21">
-        <v>-0.08883380224530005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.06710341081169063</v>
+      </c>
+      <c r="G21">
+        <v>0.02652644898196414</v>
+      </c>
+      <c r="H21">
+        <v>0.04991327338667394</v>
+      </c>
+      <c r="I21">
+        <v>-0.01257465757652158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0399818461973837</v>
+        <v>0.03452054128841891</v>
       </c>
       <c r="C24">
-        <v>-0.003537986118770555</v>
+        <v>-0.01302629440815483</v>
       </c>
       <c r="D24">
-        <v>-0.02685451238593282</v>
+        <v>-0.02726614293927289</v>
       </c>
       <c r="E24">
-        <v>0.01433718713134695</v>
+        <v>0.01124432045331802</v>
       </c>
       <c r="F24">
-        <v>-0.04895321312276654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03706924334606841</v>
+      </c>
+      <c r="G24">
+        <v>0.002570516001818071</v>
+      </c>
+      <c r="H24">
+        <v>0.009764264818316812</v>
+      </c>
+      <c r="I24">
+        <v>-0.04548815136812203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04221771482054023</v>
+        <v>0.04248399472593407</v>
       </c>
       <c r="C25">
-        <v>0.0002793106922504395</v>
+        <v>-0.01372858604235267</v>
       </c>
       <c r="D25">
-        <v>-0.02809370311129453</v>
+        <v>-0.02689998385046008</v>
       </c>
       <c r="E25">
-        <v>0.01631931662824017</v>
+        <v>0.01262882537343016</v>
       </c>
       <c r="F25">
-        <v>-0.053103169010993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0480216645487016</v>
+      </c>
+      <c r="G25">
+        <v>-0.002878235132220633</v>
+      </c>
+      <c r="H25">
+        <v>0.0171129405585029</v>
+      </c>
+      <c r="I25">
+        <v>-0.03941422842711204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01812533926981313</v>
+        <v>0.01120477036776605</v>
       </c>
       <c r="C26">
-        <v>-0.007798942111702437</v>
+        <v>-0.01526113061140501</v>
       </c>
       <c r="D26">
-        <v>-0.05082679705679116</v>
+        <v>-0.02046172968060059</v>
       </c>
       <c r="E26">
-        <v>-0.002626935146586548</v>
+        <v>0.002727565647831661</v>
       </c>
       <c r="F26">
-        <v>-0.04323094265101537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04413661720230017</v>
+      </c>
+      <c r="G26">
+        <v>0.03821694088042287</v>
+      </c>
+      <c r="H26">
+        <v>0.009153161078690679</v>
+      </c>
+      <c r="I26">
+        <v>-0.04228692076532285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1052767131027229</v>
+        <v>0.06106448088582336</v>
       </c>
       <c r="C27">
-        <v>0.02683616172879934</v>
+        <v>-0.005926269830278863</v>
       </c>
       <c r="D27">
-        <v>-0.03766060252288341</v>
+        <v>-0.01653990596720969</v>
       </c>
       <c r="E27">
-        <v>0.03619962486126642</v>
+        <v>0.02662818697040048</v>
       </c>
       <c r="F27">
-        <v>-0.05522322133519727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04247042592682046</v>
+      </c>
+      <c r="G27">
+        <v>0.03794860294764168</v>
+      </c>
+      <c r="H27">
+        <v>0.0198226275325945</v>
+      </c>
+      <c r="I27">
+        <v>-0.02354895594605974</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05172640947850134</v>
+        <v>0.08122661516337559</v>
       </c>
       <c r="C28">
-        <v>0.08883787565671347</v>
+        <v>0.09930561186617787</v>
       </c>
       <c r="D28">
-        <v>0.206754403536362</v>
+        <v>0.2235224359721401</v>
       </c>
       <c r="E28">
-        <v>-0.1059309306474079</v>
+        <v>-0.07240656253447413</v>
       </c>
       <c r="F28">
-        <v>-0.01710913237983837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01801870334286658</v>
+      </c>
+      <c r="G28">
+        <v>0.05559265705824331</v>
+      </c>
+      <c r="H28">
+        <v>0.02909988399418876</v>
+      </c>
+      <c r="I28">
+        <v>-0.03683845761815797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02662450401249884</v>
+        <v>0.02162974029739292</v>
       </c>
       <c r="C29">
-        <v>0.00989431221502249</v>
+        <v>-0.001446339982229591</v>
       </c>
       <c r="D29">
-        <v>-0.04363001543259642</v>
+        <v>-0.01945521342935533</v>
       </c>
       <c r="E29">
-        <v>0.03016988239130533</v>
+        <v>0.03056064224566934</v>
       </c>
       <c r="F29">
-        <v>-0.01998973428849497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.032546702736014</v>
+      </c>
+      <c r="G29">
+        <v>0.06080464170844879</v>
+      </c>
+      <c r="H29">
+        <v>0.01581435435534536</v>
+      </c>
+      <c r="I29">
+        <v>-0.005793714113959392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1012760537996158</v>
+        <v>0.08209015507555055</v>
       </c>
       <c r="C30">
-        <v>0.03210081120833289</v>
+        <v>-0.05990488342839152</v>
       </c>
       <c r="D30">
-        <v>-0.06217410968043297</v>
+        <v>-0.02865521750649885</v>
       </c>
       <c r="E30">
-        <v>0.01839406099215562</v>
+        <v>0.03856594192887017</v>
       </c>
       <c r="F30">
-        <v>-0.1125193194738845</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1020310793065589</v>
+      </c>
+      <c r="G30">
+        <v>0.02075239158128155</v>
+      </c>
+      <c r="H30">
+        <v>-0.005272685069975963</v>
+      </c>
+      <c r="I30">
+        <v>-0.03600908203638537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06050233640188927</v>
+        <v>0.05550227597448212</v>
       </c>
       <c r="C31">
-        <v>0.01377154636481198</v>
+        <v>-0.01609973334688032</v>
       </c>
       <c r="D31">
-        <v>-0.03451257112606438</v>
+        <v>-0.01145316156022217</v>
       </c>
       <c r="E31">
-        <v>-0.02730188533617813</v>
+        <v>0.02131513413378457</v>
       </c>
       <c r="F31">
-        <v>0.01857212755538395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0007682516455217211</v>
+      </c>
+      <c r="G31">
+        <v>0.05081624901141618</v>
+      </c>
+      <c r="H31">
+        <v>0.03789854845872823</v>
+      </c>
+      <c r="I31">
+        <v>-0.01698440304935537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.04995577320355035</v>
+        <v>0.03051432994677554</v>
       </c>
       <c r="C32">
-        <v>0.002675011408380026</v>
+        <v>-0.002373055621545492</v>
       </c>
       <c r="D32">
-        <v>-0.0511248449765843</v>
+        <v>-0.03651338669685127</v>
       </c>
       <c r="E32">
-        <v>0.03382690329524837</v>
+        <v>0.0417933496139763</v>
       </c>
       <c r="F32">
-        <v>-0.08409965384423614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08802584257475432</v>
+      </c>
+      <c r="G32">
+        <v>0.00917183592078016</v>
+      </c>
+      <c r="H32">
+        <v>0.004179650198629762</v>
+      </c>
+      <c r="I32">
+        <v>-0.07008436226604463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.0498522371357066</v>
+        <v>0.04393198032944785</v>
       </c>
       <c r="C33">
-        <v>-0.008879199322747005</v>
+        <v>-0.03989533555450324</v>
       </c>
       <c r="D33">
-        <v>-0.07447395579372051</v>
+        <v>-0.03711164816073969</v>
       </c>
       <c r="E33">
-        <v>0.0145526906851148</v>
+        <v>0.009676365673551308</v>
       </c>
       <c r="F33">
-        <v>-0.07119916947156577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0701413250814019</v>
+      </c>
+      <c r="G33">
+        <v>0.04865315031136262</v>
+      </c>
+      <c r="H33">
+        <v>0.03266167489536657</v>
+      </c>
+      <c r="I33">
+        <v>-0.047450737034258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.03988476108752682</v>
+        <v>0.03712246006771554</v>
       </c>
       <c r="C34">
-        <v>0.004443021659359126</v>
+        <v>-0.01029380112841993</v>
       </c>
       <c r="D34">
-        <v>-0.03233942054761729</v>
+        <v>-0.03266161044877684</v>
       </c>
       <c r="E34">
-        <v>0.01707538140799008</v>
+        <v>0.02166800269116841</v>
       </c>
       <c r="F34">
-        <v>-0.042576909379104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03909101329164665</v>
+      </c>
+      <c r="G34">
+        <v>0.002949811246857306</v>
+      </c>
+      <c r="H34">
+        <v>0.01220100698882422</v>
+      </c>
+      <c r="I34">
+        <v>-0.04368775471764436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.0137056562107724</v>
+        <v>0.01556156721461232</v>
       </c>
       <c r="C36">
-        <v>0.01156508722035466</v>
+        <v>0.002501008584518914</v>
       </c>
       <c r="D36">
-        <v>-0.009974462359411448</v>
+        <v>-0.00193579854560882</v>
       </c>
       <c r="E36">
-        <v>0.009516041865714628</v>
+        <v>0.00948741306360692</v>
       </c>
       <c r="F36">
-        <v>-0.02353151750795439</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02546867496499593</v>
+      </c>
+      <c r="G36">
+        <v>0.03683218035920623</v>
+      </c>
+      <c r="H36">
+        <v>0.01986513662430227</v>
+      </c>
+      <c r="I36">
+        <v>0.004354768135872289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.02136882513066023</v>
+        <v>0.02454282131844102</v>
       </c>
       <c r="C38">
-        <v>0.007250333029854775</v>
+        <v>0.00250737222333968</v>
       </c>
       <c r="D38">
-        <v>0.01231054841075172</v>
+        <v>-0.004206894533498295</v>
       </c>
       <c r="E38">
-        <v>0.006181978086148151</v>
+        <v>0.001970249250783292</v>
       </c>
       <c r="F38">
-        <v>-0.01210601636113877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03779494238028135</v>
+      </c>
+      <c r="G38">
+        <v>0.02338349582087674</v>
+      </c>
+      <c r="H38">
+        <v>0.028437579601746</v>
+      </c>
+      <c r="I38">
+        <v>-0.001456813720501211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06140935209792505</v>
+        <v>0.04682822314032656</v>
       </c>
       <c r="C39">
-        <v>0.00517116735222234</v>
+        <v>-0.02782560152320429</v>
       </c>
       <c r="D39">
-        <v>-0.04732852909202854</v>
+        <v>-0.04374565278860824</v>
       </c>
       <c r="E39">
-        <v>0.005400655787145095</v>
+        <v>0.02666561375019405</v>
       </c>
       <c r="F39">
-        <v>-0.04103685368952149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05901292718052534</v>
+      </c>
+      <c r="G39">
+        <v>-0.003705034549909652</v>
+      </c>
+      <c r="H39">
+        <v>0.02412961606666247</v>
+      </c>
+      <c r="I39">
+        <v>-0.02882371923610663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.05427992979134562</v>
+        <v>0.04590292821498266</v>
       </c>
       <c r="C40">
-        <v>0.02301845328028307</v>
+        <v>-0.03767988240777394</v>
       </c>
       <c r="D40">
-        <v>-0.07029593561312963</v>
+        <v>-0.0244171545847304</v>
       </c>
       <c r="E40">
-        <v>-0.01409468691380186</v>
+        <v>0.02885956665943341</v>
       </c>
       <c r="F40">
-        <v>-0.0892459557695752</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08013871969992695</v>
+      </c>
+      <c r="G40">
+        <v>0.0406219687389731</v>
+      </c>
+      <c r="H40">
+        <v>0.02999064210671103</v>
+      </c>
+      <c r="I40">
+        <v>-0.1189163270824167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.008155051059017067</v>
+        <v>-0.0003498858440935958</v>
       </c>
       <c r="C41">
-        <v>0.001068506924441587</v>
+        <v>-0.001979200366643837</v>
       </c>
       <c r="D41">
-        <v>-0.02735729434117464</v>
+        <v>-0.001771768864769532</v>
       </c>
       <c r="E41">
-        <v>0.01046442861389451</v>
+        <v>0.006854446410289259</v>
       </c>
       <c r="F41">
-        <v>0.01093412934366481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004028045042877309</v>
+      </c>
+      <c r="G41">
+        <v>0.04855806514602262</v>
+      </c>
+      <c r="H41">
+        <v>0.0319022386657417</v>
+      </c>
+      <c r="I41">
+        <v>-0.002221278841075774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2519866556171859</v>
+        <v>0.2032938256489316</v>
       </c>
       <c r="C42">
-        <v>-0.9064304103868559</v>
+        <v>-0.1712141541835636</v>
       </c>
       <c r="D42">
-        <v>0.148041551978719</v>
+        <v>-0.329528736557574</v>
       </c>
       <c r="E42">
-        <v>-0.2390066696609284</v>
+        <v>-0.871915270652014</v>
       </c>
       <c r="F42">
-        <v>0.06073643319807696</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1805490519494547</v>
+      </c>
+      <c r="G42">
+        <v>-0.01702102373402995</v>
+      </c>
+      <c r="H42">
+        <v>-0.003499839721920656</v>
+      </c>
+      <c r="I42">
+        <v>-0.02326206950519997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007275148210882087</v>
+        <v>0.002479102275963689</v>
       </c>
       <c r="C43">
-        <v>0.001425803752638801</v>
+        <v>-0.005232348517860244</v>
       </c>
       <c r="D43">
-        <v>-0.02749325867366574</v>
+        <v>-0.002292385903441667</v>
       </c>
       <c r="E43">
-        <v>0.00420227307869746</v>
+        <v>0.005202201154815398</v>
       </c>
       <c r="F43">
-        <v>-0.02046903784031467</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01521526080328873</v>
+      </c>
+      <c r="G43">
+        <v>0.04103174871793622</v>
+      </c>
+      <c r="H43">
+        <v>0.01747592636664718</v>
+      </c>
+      <c r="I43">
+        <v>-0.01066552517215046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02786399837678457</v>
+        <v>0.01911851003074082</v>
       </c>
       <c r="C44">
-        <v>-0.00240532394139434</v>
+        <v>-0.01204472988462685</v>
       </c>
       <c r="D44">
-        <v>-0.059457081306089</v>
+        <v>-0.02912945353086892</v>
       </c>
       <c r="E44">
-        <v>0.01688348127364292</v>
+        <v>0.007904191969931284</v>
       </c>
       <c r="F44">
-        <v>-0.1113730515221833</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1109421866290922</v>
+      </c>
+      <c r="G44">
+        <v>0.09400598306971973</v>
+      </c>
+      <c r="H44">
+        <v>0.04136929001121863</v>
+      </c>
+      <c r="I44">
+        <v>-0.06880260337918265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02907420527827037</v>
+        <v>0.02085658824165956</v>
       </c>
       <c r="C46">
-        <v>0.006482038441102641</v>
+        <v>-0.01801876344472711</v>
       </c>
       <c r="D46">
-        <v>-0.05304140182745292</v>
+        <v>-0.02570141725142115</v>
       </c>
       <c r="E46">
-        <v>0.01544809765021455</v>
+        <v>0.03280633861508111</v>
       </c>
       <c r="F46">
-        <v>-0.01792656077462852</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04645224090709005</v>
+      </c>
+      <c r="G46">
+        <v>0.06362858045890002</v>
+      </c>
+      <c r="H46">
+        <v>0.01401706568969109</v>
+      </c>
+      <c r="I46">
+        <v>-0.01429076583348516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0856549221978571</v>
+        <v>0.08175531532513122</v>
       </c>
       <c r="C47">
-        <v>0.0165639067104978</v>
+        <v>-0.0145681484988846</v>
       </c>
       <c r="D47">
-        <v>-0.03868234057145709</v>
+        <v>-0.02168969280164917</v>
       </c>
       <c r="E47">
-        <v>0.01537469255499429</v>
+        <v>0.03082022184374823</v>
       </c>
       <c r="F47">
-        <v>0.02661112977502579</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02341851547139031</v>
+      </c>
+      <c r="G47">
+        <v>0.070891588232751</v>
+      </c>
+      <c r="H47">
+        <v>0.02339259981378946</v>
+      </c>
+      <c r="I47">
+        <v>-0.02819285533216421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01250255902094635</v>
+        <v>0.0183094489767491</v>
       </c>
       <c r="C48">
-        <v>0.006578087039013629</v>
+        <v>-0.004563084184137762</v>
       </c>
       <c r="D48">
-        <v>-0.03118446935575033</v>
+        <v>-0.01046966652267525</v>
       </c>
       <c r="E48">
-        <v>0.01179618100091242</v>
+        <v>0.01372739502451009</v>
       </c>
       <c r="F48">
-        <v>-0.03407408765286803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02872706100163363</v>
+      </c>
+      <c r="G48">
+        <v>0.03016825027115042</v>
+      </c>
+      <c r="H48">
+        <v>0.01458930746149618</v>
+      </c>
+      <c r="I48">
+        <v>-0.01497316057090112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08571138348823275</v>
+        <v>0.08179139372548357</v>
       </c>
       <c r="C50">
-        <v>0.00377214923787943</v>
+        <v>-0.009968501379897013</v>
       </c>
       <c r="D50">
-        <v>-0.03977060491975275</v>
+        <v>-0.04063973024662176</v>
       </c>
       <c r="E50">
-        <v>-0.004598238232859008</v>
+        <v>0.02340578916178006</v>
       </c>
       <c r="F50">
-        <v>0.01111697384895657</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.007761177401758178</v>
+      </c>
+      <c r="G50">
+        <v>0.04554254716259229</v>
+      </c>
+      <c r="H50">
+        <v>-0.00965914960453463</v>
+      </c>
+      <c r="I50">
+        <v>0.006414617130317024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05347543738323407</v>
+        <v>0.0373202177805055</v>
       </c>
       <c r="C51">
-        <v>0.01358710347853129</v>
+        <v>-0.009163141986046914</v>
       </c>
       <c r="D51">
-        <v>-0.02866835445507534</v>
+        <v>0.008875229904989861</v>
       </c>
       <c r="E51">
-        <v>-0.03160499199183392</v>
+        <v>0.003073433234541094</v>
       </c>
       <c r="F51">
-        <v>-0.0585193297197479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.07953151426242619</v>
+      </c>
+      <c r="G51">
+        <v>0.07571720195376583</v>
+      </c>
+      <c r="H51">
+        <v>0.04765581128216045</v>
+      </c>
+      <c r="I51">
+        <v>-0.04951703598622705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1230828464260639</v>
+        <v>0.1130635644218241</v>
       </c>
       <c r="C53">
-        <v>0.02259210737377442</v>
+        <v>-0.02681756722881188</v>
       </c>
       <c r="D53">
-        <v>-0.07339457073993745</v>
+        <v>-0.043242118342022</v>
       </c>
       <c r="E53">
-        <v>0.01066044434287524</v>
+        <v>0.06036186627789767</v>
       </c>
       <c r="F53">
-        <v>0.07130521313201331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05493875942962653</v>
+      </c>
+      <c r="G53">
+        <v>0.0274416558312337</v>
+      </c>
+      <c r="H53">
+        <v>0.01714612213601063</v>
+      </c>
+      <c r="I53">
+        <v>-0.02693593525579996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02311865965544721</v>
+        <v>0.02441657705291561</v>
       </c>
       <c r="C54">
-        <v>0.0208132040444891</v>
+        <v>0.002465071954614923</v>
       </c>
       <c r="D54">
-        <v>-0.02538354219444609</v>
+        <v>-0.003031624928128282</v>
       </c>
       <c r="E54">
-        <v>0.01544882411369524</v>
+        <v>0.02985072689815799</v>
       </c>
       <c r="F54">
-        <v>-0.03997334571680397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03380656819770466</v>
+      </c>
+      <c r="G54">
+        <v>0.06130621705535048</v>
+      </c>
+      <c r="H54">
+        <v>0.02253331332105922</v>
+      </c>
+      <c r="I54">
+        <v>-0.004131960673755229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1034902189082773</v>
+        <v>0.09214767409328488</v>
       </c>
       <c r="C55">
-        <v>0.01489729617878021</v>
+        <v>-0.008999154896313269</v>
       </c>
       <c r="D55">
-        <v>-0.02312800427521274</v>
+        <v>-0.04617642113232574</v>
       </c>
       <c r="E55">
-        <v>0.04333210011640565</v>
+        <v>0.04363529141356017</v>
       </c>
       <c r="F55">
-        <v>0.03172741285446989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04244644937625478</v>
+      </c>
+      <c r="G55">
+        <v>0.03317047166099758</v>
+      </c>
+      <c r="H55">
+        <v>-0.02100726709314293</v>
+      </c>
+      <c r="I55">
+        <v>-0.01256646769850445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1623018286003686</v>
+        <v>0.1558202602759411</v>
       </c>
       <c r="C56">
-        <v>0.07068151750666599</v>
+        <v>-0.02192912472532689</v>
       </c>
       <c r="D56">
-        <v>-0.05321834403657928</v>
+        <v>-0.03851042923638768</v>
       </c>
       <c r="E56">
-        <v>0.03211558369966287</v>
+        <v>0.09568349017279852</v>
       </c>
       <c r="F56">
-        <v>0.1158751076890997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09722863259950659</v>
+      </c>
+      <c r="G56">
+        <v>-0.02228631714304311</v>
+      </c>
+      <c r="H56">
+        <v>-0.02027801527911714</v>
+      </c>
+      <c r="I56">
+        <v>-0.02111115525754961</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.06427726933862049</v>
+        <v>0.05408092521055329</v>
       </c>
       <c r="C57">
-        <v>0.01293350847228528</v>
+        <v>-0.02823312764041069</v>
       </c>
       <c r="D57">
-        <v>-0.04296435771290991</v>
+        <v>-0.01709250909392538</v>
       </c>
       <c r="E57">
-        <v>-0.01498669609593617</v>
+        <v>0.004185554823607564</v>
       </c>
       <c r="F57">
-        <v>-0.06087478526866644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.05983240786897152</v>
+      </c>
+      <c r="G57">
+        <v>0.02492099448522654</v>
+      </c>
+      <c r="H57">
+        <v>0.01879518437807028</v>
+      </c>
+      <c r="I57">
+        <v>-0.03855253305421515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1978563431158475</v>
+        <v>0.1894247654059346</v>
       </c>
       <c r="C58">
-        <v>0.001304739867893032</v>
+        <v>-0.1405444569698848</v>
       </c>
       <c r="D58">
-        <v>-0.1153785760977529</v>
+        <v>-0.07221836647992959</v>
       </c>
       <c r="E58">
-        <v>0.002456585654643926</v>
+        <v>-0.02331809907737198</v>
       </c>
       <c r="F58">
-        <v>-0.2640624880252245</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3805950286838795</v>
+      </c>
+      <c r="G58">
+        <v>0.3370189097576795</v>
+      </c>
+      <c r="H58">
+        <v>-0.3574384509110521</v>
+      </c>
+      <c r="I58">
+        <v>0.6939900797732277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.06115808913240794</v>
+        <v>0.08980427538547715</v>
       </c>
       <c r="C59">
-        <v>0.1070376326178286</v>
+        <v>0.06992536754657691</v>
       </c>
       <c r="D59">
-        <v>0.146304704171562</v>
+        <v>0.1978930123749005</v>
       </c>
       <c r="E59">
-        <v>-0.06862457690073606</v>
+        <v>-0.03232596086987952</v>
       </c>
       <c r="F59">
-        <v>-0.02844237217258055</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.04542646196146049</v>
+      </c>
+      <c r="G59">
+        <v>0.0201054100468281</v>
+      </c>
+      <c r="H59">
+        <v>0.02534466676153846</v>
+      </c>
+      <c r="I59">
+        <v>-0.006814280471783889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1857272119646255</v>
+        <v>0.2013411252211432</v>
       </c>
       <c r="C60">
-        <v>0.06386724882486264</v>
+        <v>-0.03911847703244902</v>
       </c>
       <c r="D60">
-        <v>0.007921261225963826</v>
+        <v>0.05373135513535366</v>
       </c>
       <c r="E60">
-        <v>-0.08578114570648547</v>
+        <v>0.0158141935349785</v>
       </c>
       <c r="F60">
-        <v>-0.1525216616106506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.2007971767896361</v>
+      </c>
+      <c r="G60">
+        <v>-0.3359963246325783</v>
+      </c>
+      <c r="H60">
+        <v>0.06092376498564842</v>
+      </c>
+      <c r="I60">
+        <v>-0.01988333458433029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03120670558248491</v>
+        <v>0.03465104355768937</v>
       </c>
       <c r="C61">
-        <v>0.002594928043476234</v>
+        <v>-0.01371211981310887</v>
       </c>
       <c r="D61">
-        <v>-0.01914829115657767</v>
+        <v>-0.03053110846703921</v>
       </c>
       <c r="E61">
-        <v>0.01493498868911523</v>
+        <v>0.01844561658742943</v>
       </c>
       <c r="F61">
-        <v>-0.03809933159672853</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03876613912929188</v>
+      </c>
+      <c r="G61">
+        <v>-0.01393148220627215</v>
+      </c>
+      <c r="H61">
+        <v>0.01618404104155833</v>
+      </c>
+      <c r="I61">
+        <v>-0.01399682293121379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.02866255205208017</v>
+        <v>0.02437886300364702</v>
       </c>
       <c r="C63">
-        <v>0.01234156330585929</v>
+        <v>-0.01115111196529339</v>
       </c>
       <c r="D63">
-        <v>-0.03754782986259937</v>
+        <v>-0.02021102544139789</v>
       </c>
       <c r="E63">
-        <v>0.01213816872743579</v>
+        <v>0.0189824915821746</v>
       </c>
       <c r="F63">
-        <v>-0.05043775725745829</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03104288307951791</v>
+      </c>
+      <c r="G63">
+        <v>0.05028931437087319</v>
+      </c>
+      <c r="H63">
+        <v>-0.002969735623629368</v>
+      </c>
+      <c r="I63">
+        <v>-0.03380088953230087</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05104601200638682</v>
+        <v>0.05175840718446832</v>
       </c>
       <c r="C64">
-        <v>0.004477368784810754</v>
+        <v>-0.00767491169489075</v>
       </c>
       <c r="D64">
-        <v>-0.04928512121426661</v>
+        <v>-0.0413569725619733</v>
       </c>
       <c r="E64">
-        <v>0.0540093984090298</v>
+        <v>0.02784301403130875</v>
       </c>
       <c r="F64">
-        <v>-0.05126962089604584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04328086380325356</v>
+      </c>
+      <c r="G64">
+        <v>0.03992257428751989</v>
+      </c>
+      <c r="H64">
+        <v>0.05988436847378081</v>
+      </c>
+      <c r="I64">
+        <v>-0.05922590762094174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.001548702735897765</v>
+        <v>0.0316933330475466</v>
       </c>
       <c r="C65">
-        <v>-0.001882685780454802</v>
+        <v>-0.003902376209060352</v>
       </c>
       <c r="D65">
-        <v>0.001767633111250558</v>
+        <v>-0.01583181125233388</v>
       </c>
       <c r="E65">
-        <v>-0.002103135177479545</v>
+        <v>0.009020608966140532</v>
       </c>
       <c r="F65">
-        <v>0.002223548849588869</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01188035044273976</v>
+      </c>
+      <c r="G65">
+        <v>-0.02942096836754921</v>
+      </c>
+      <c r="H65">
+        <v>-0.00508254981494698</v>
+      </c>
+      <c r="I65">
+        <v>-0.01010227041622002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.06041579831948098</v>
+        <v>0.05589263632390828</v>
       </c>
       <c r="C66">
-        <v>0.01992765136396584</v>
+        <v>-0.03742368792656443</v>
       </c>
       <c r="D66">
-        <v>-0.06298869530459469</v>
+        <v>-0.04548580803168811</v>
       </c>
       <c r="E66">
-        <v>0.02676732880920929</v>
+        <v>0.05137528469314504</v>
       </c>
       <c r="F66">
-        <v>-0.08255981109672612</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07176297283073683</v>
+      </c>
+      <c r="G66">
+        <v>-0.01402200650748825</v>
+      </c>
+      <c r="H66">
+        <v>0.01300633755037842</v>
+      </c>
+      <c r="I66">
+        <v>-0.07022487124458378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03943055090796845</v>
+        <v>0.04266687912786138</v>
       </c>
       <c r="C67">
-        <v>0.01455269541819945</v>
+        <v>0.002749822006147411</v>
       </c>
       <c r="D67">
-        <v>0.02471539338383879</v>
+        <v>0.006823736873348491</v>
       </c>
       <c r="E67">
-        <v>-0.007608941126712068</v>
+        <v>0.003586905841780859</v>
       </c>
       <c r="F67">
-        <v>-0.01919735457713201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03126436785127768</v>
+      </c>
+      <c r="G67">
+        <v>0.001583066728266084</v>
+      </c>
+      <c r="H67">
+        <v>0.04464533159253194</v>
+      </c>
+      <c r="I67">
+        <v>0.001798322286692293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.07056919270631787</v>
+        <v>0.08738708810429746</v>
       </c>
       <c r="C68">
-        <v>0.09533702135639803</v>
+        <v>0.08433646537253026</v>
       </c>
       <c r="D68">
-        <v>0.2039259128556019</v>
+        <v>0.2183331672894919</v>
       </c>
       <c r="E68">
-        <v>-0.09845724437043409</v>
+        <v>-0.06263787481460367</v>
       </c>
       <c r="F68">
-        <v>0.01251937846974089</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.003590348926106012</v>
+      </c>
+      <c r="G68">
+        <v>0.03892242508586419</v>
+      </c>
+      <c r="H68">
+        <v>-0.01836814487049108</v>
+      </c>
+      <c r="I68">
+        <v>0.03383096836740928</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07039410485551009</v>
+        <v>0.0668773566914871</v>
       </c>
       <c r="C69">
-        <v>0.02206547266748252</v>
+        <v>-0.01468438632393261</v>
       </c>
       <c r="D69">
-        <v>-0.0216200716537668</v>
+        <v>-0.01519007109008058</v>
       </c>
       <c r="E69">
-        <v>-0.003073702514622472</v>
+        <v>0.03045452353497337</v>
       </c>
       <c r="F69">
-        <v>0.0111463316748078</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.008673822491803276</v>
+      </c>
+      <c r="G69">
+        <v>0.04571941143542651</v>
+      </c>
+      <c r="H69">
+        <v>0.02053325921530117</v>
+      </c>
+      <c r="I69">
+        <v>-0.02423557797976497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.07385842766731146</v>
+        <v>0.08810975397362694</v>
       </c>
       <c r="C71">
-        <v>0.1232510040491302</v>
+        <v>0.08876132882551416</v>
       </c>
       <c r="D71">
-        <v>0.2499795274787288</v>
+        <v>0.2409737617626874</v>
       </c>
       <c r="E71">
-        <v>-0.1645729374671356</v>
+        <v>-0.07984443860541771</v>
       </c>
       <c r="F71">
-        <v>-0.02186475323621379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.01828628142604392</v>
+      </c>
+      <c r="G71">
+        <v>0.02654705904258995</v>
+      </c>
+      <c r="H71">
+        <v>0.01434951978927674</v>
+      </c>
+      <c r="I71">
+        <v>0.01053858627981723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1275960438136237</v>
+        <v>0.1333340125570903</v>
       </c>
       <c r="C72">
-        <v>0.06755086767948937</v>
+        <v>-0.03732367114026467</v>
       </c>
       <c r="D72">
-        <v>-0.04165827487043731</v>
+        <v>-0.03700803497212563</v>
       </c>
       <c r="E72">
-        <v>0.01535815044169192</v>
+        <v>0.08670609904000108</v>
       </c>
       <c r="F72">
-        <v>-0.06300881296090559</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1013475322870096</v>
+      </c>
+      <c r="G72">
+        <v>-0.0952642260002044</v>
+      </c>
+      <c r="H72">
+        <v>0.01774046324376094</v>
+      </c>
+      <c r="I72">
+        <v>0.1513999176253894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2865218486854655</v>
+        <v>0.287216362575797</v>
       </c>
       <c r="C73">
-        <v>0.08761236068157825</v>
+        <v>-0.07350440977016069</v>
       </c>
       <c r="D73">
-        <v>0.05722349333417455</v>
+        <v>0.06656897912535696</v>
       </c>
       <c r="E73">
-        <v>-0.122665670449569</v>
+        <v>-0.02530237795091646</v>
       </c>
       <c r="F73">
-        <v>-0.267980671526205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2870603438007283</v>
+      </c>
+      <c r="G73">
+        <v>-0.5194526977945941</v>
+      </c>
+      <c r="H73">
+        <v>0.03981973833633176</v>
+      </c>
+      <c r="I73">
+        <v>0.02086123131397395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1428288192851153</v>
+        <v>0.1390302571755459</v>
       </c>
       <c r="C74">
-        <v>0.02119884609495198</v>
+        <v>-0.03246047171155222</v>
       </c>
       <c r="D74">
-        <v>-0.04558622711871213</v>
+        <v>-0.048373665415383</v>
       </c>
       <c r="E74">
-        <v>0.01311541575193093</v>
+        <v>0.0607377259272995</v>
       </c>
       <c r="F74">
-        <v>0.06072020027693582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0760965549668277</v>
+      </c>
+      <c r="G74">
+        <v>-0.01840344261100584</v>
+      </c>
+      <c r="H74">
+        <v>-0.01245838192003048</v>
+      </c>
+      <c r="I74">
+        <v>-0.06955705733109234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2273275692292669</v>
+        <v>0.2411870448886365</v>
       </c>
       <c r="C75">
-        <v>0.07405956756086779</v>
+        <v>-0.05350805097551498</v>
       </c>
       <c r="D75">
-        <v>-0.09068363398761788</v>
+        <v>-0.04118707195427179</v>
       </c>
       <c r="E75">
-        <v>0.003741070887246606</v>
+        <v>0.1281666354983304</v>
       </c>
       <c r="F75">
-        <v>0.1434473166588189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1435059597781307</v>
+      </c>
+      <c r="G75">
+        <v>0.01604001581950418</v>
+      </c>
+      <c r="H75">
+        <v>0.003084620643473124</v>
+      </c>
+      <c r="I75">
+        <v>-0.00729539168719808</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.260364503767006</v>
+        <v>0.2555736951404045</v>
       </c>
       <c r="C76">
-        <v>0.09521758753003348</v>
+        <v>-0.01515598629380211</v>
       </c>
       <c r="D76">
-        <v>-0.05127643651114235</v>
+        <v>-0.05277045108743247</v>
       </c>
       <c r="E76">
-        <v>0.06348264813725053</v>
+        <v>0.1545698886200979</v>
       </c>
       <c r="F76">
-        <v>0.1547229468581282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1980261226807004</v>
+      </c>
+      <c r="G76">
+        <v>0.003074998420990154</v>
+      </c>
+      <c r="H76">
+        <v>-0.07689544284793448</v>
+      </c>
+      <c r="I76">
+        <v>-0.02371940430979401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1423425829784215</v>
+        <v>0.1031023855097272</v>
       </c>
       <c r="C77">
-        <v>-0.04515164445628477</v>
+        <v>-0.04314643088121534</v>
       </c>
       <c r="D77">
-        <v>-0.07261852675213815</v>
+        <v>-0.07428988963234963</v>
       </c>
       <c r="E77">
-        <v>0.009197002941984367</v>
+        <v>-0.03768229646220281</v>
       </c>
       <c r="F77">
-        <v>-0.2183969104908116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1536615898303562</v>
+      </c>
+      <c r="G77">
+        <v>0.2284900988259453</v>
+      </c>
+      <c r="H77">
+        <v>-0.06530908588841873</v>
+      </c>
+      <c r="I77">
+        <v>-0.2616397240458827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08293135334319818</v>
+        <v>0.06064890965208509</v>
       </c>
       <c r="C78">
-        <v>-0.02356875577804609</v>
+        <v>-0.02728032718444943</v>
       </c>
       <c r="D78">
-        <v>-0.08332546977449468</v>
+        <v>-0.06293978103418285</v>
       </c>
       <c r="E78">
-        <v>0.04402226954401824</v>
+        <v>0.02618750174435674</v>
       </c>
       <c r="F78">
-        <v>-0.04796808372907877</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07020457233227499</v>
+      </c>
+      <c r="G78">
+        <v>0.03531146200556365</v>
+      </c>
+      <c r="H78">
+        <v>0.01958349546883311</v>
+      </c>
+      <c r="I78">
+        <v>-0.04867117692768869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1296618569776694</v>
+        <v>0.1488601324835886</v>
       </c>
       <c r="C80">
-        <v>-0.1241330544501143</v>
+        <v>0.8952789450054669</v>
       </c>
       <c r="D80">
-        <v>0.451134824724556</v>
+        <v>-0.3866576007475275</v>
       </c>
       <c r="E80">
-        <v>0.851111332097071</v>
+        <v>-0.01823124196005922</v>
       </c>
       <c r="F80">
-        <v>-0.05850998195971994</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.07019465075810224</v>
+      </c>
+      <c r="G80">
+        <v>-0.03132100678581781</v>
+      </c>
+      <c r="H80">
+        <v>0.04245803126674159</v>
+      </c>
+      <c r="I80">
+        <v>0.08959760964353061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1661569664393841</v>
+        <v>0.1798442060596623</v>
       </c>
       <c r="C81">
-        <v>0.05585785683218053</v>
+        <v>-0.02301527904243355</v>
       </c>
       <c r="D81">
-        <v>-0.05120733328019891</v>
+        <v>-0.03568875203232939</v>
       </c>
       <c r="E81">
-        <v>0.02370270911440163</v>
+        <v>0.1031328951950154</v>
       </c>
       <c r="F81">
-        <v>0.1449953506708059</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1376141713355182</v>
+      </c>
+      <c r="G81">
+        <v>0.02911991767705282</v>
+      </c>
+      <c r="H81">
+        <v>-0.0466907793814056</v>
+      </c>
+      <c r="I81">
+        <v>-0.009199431757938713</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.05880548261785102</v>
+        <v>0.04756372024111077</v>
       </c>
       <c r="C83">
-        <v>-0.05032182238249833</v>
+        <v>-0.02951928263624857</v>
       </c>
       <c r="D83">
-        <v>-0.06754121504441668</v>
+        <v>-0.03979232085697978</v>
       </c>
       <c r="E83">
-        <v>0.004277928174607554</v>
+        <v>-0.01653332407207729</v>
       </c>
       <c r="F83">
-        <v>-0.0403975811370546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.05170394227684172</v>
+      </c>
+      <c r="G83">
+        <v>0.03057848991027168</v>
+      </c>
+      <c r="H83">
+        <v>0.02549901468937971</v>
+      </c>
+      <c r="I83">
+        <v>-0.05586645649418481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2287597189647558</v>
+        <v>0.238190532542624</v>
       </c>
       <c r="C85">
-        <v>0.03891472825756633</v>
+        <v>-0.05223791063213858</v>
       </c>
       <c r="D85">
-        <v>-0.07979070524619247</v>
+        <v>-0.07684999955440931</v>
       </c>
       <c r="E85">
-        <v>0.05412786608784942</v>
+        <v>0.1197435399849807</v>
       </c>
       <c r="F85">
-        <v>0.1819291314656434</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1873603524947292</v>
+      </c>
+      <c r="G85">
+        <v>0.02228959759390268</v>
+      </c>
+      <c r="H85">
+        <v>-0.02749749423224146</v>
+      </c>
+      <c r="I85">
+        <v>-0.02283265285766565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02315177882509519</v>
+        <v>0.01966097800527341</v>
       </c>
       <c r="C86">
-        <v>-0.009556214353726642</v>
+        <v>-0.01864926346085017</v>
       </c>
       <c r="D86">
-        <v>-0.05919304202608612</v>
+        <v>-0.03172193856712504</v>
       </c>
       <c r="E86">
-        <v>0.01311844254307476</v>
+        <v>0.01360092634374658</v>
       </c>
       <c r="F86">
-        <v>-0.08900053450621163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08730420024793946</v>
+      </c>
+      <c r="G86">
+        <v>0.05771329772983907</v>
+      </c>
+      <c r="H86">
+        <v>-0.0009354648067882991</v>
+      </c>
+      <c r="I86">
+        <v>-0.0817964298010404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.0143530457685851</v>
+        <v>0.02399521002402338</v>
       </c>
       <c r="C87">
-        <v>0.02448354799294009</v>
+        <v>0.006234154305188075</v>
       </c>
       <c r="D87">
-        <v>0.04414516981825375</v>
+        <v>0.008184424396640876</v>
       </c>
       <c r="E87">
-        <v>-0.02205077365157072</v>
+        <v>-0.005362272320520398</v>
       </c>
       <c r="F87">
-        <v>-0.1042529713011345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1078277782388367</v>
+      </c>
+      <c r="G87">
+        <v>0.01015782117966154</v>
+      </c>
+      <c r="H87">
+        <v>-0.01434400790231395</v>
+      </c>
+      <c r="I87">
+        <v>-0.07020311675558975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01734129990534738</v>
+        <v>0.03186166664927936</v>
       </c>
       <c r="C88">
-        <v>0.007394840532671416</v>
+        <v>0.006370038370604335</v>
       </c>
       <c r="D88">
-        <v>0.003885277805437854</v>
+        <v>0.004181950782493346</v>
       </c>
       <c r="E88">
-        <v>0.01974766418376969</v>
+        <v>0.008510434432544959</v>
       </c>
       <c r="F88">
-        <v>0.006529321365569111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.00858949570238954</v>
+      </c>
+      <c r="G88">
+        <v>0.01988625640679964</v>
+      </c>
+      <c r="H88">
+        <v>0.06073238066717564</v>
+      </c>
+      <c r="I88">
+        <v>-0.007021326457284652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.1112554953665539</v>
+        <v>0.1484383940964729</v>
       </c>
       <c r="C89">
-        <v>0.1134347472785509</v>
+        <v>0.1107577293843798</v>
       </c>
       <c r="D89">
-        <v>0.2820498298038962</v>
+        <v>0.3560150642233162</v>
       </c>
       <c r="E89">
-        <v>-0.1783981536143334</v>
+        <v>-0.1103097199723034</v>
       </c>
       <c r="F89">
-        <v>-0.005091916799149907</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.004273381546958847</v>
+      </c>
+      <c r="G89">
+        <v>0.0976852800548567</v>
+      </c>
+      <c r="H89">
+        <v>1.661176190621376e-06</v>
+      </c>
+      <c r="I89">
+        <v>-0.03051818955097799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.09471293359983642</v>
+        <v>0.1050758690225058</v>
       </c>
       <c r="C90">
-        <v>0.1093766379377828</v>
+        <v>0.111776225379578</v>
       </c>
       <c r="D90">
-        <v>0.2779758172571299</v>
+        <v>0.2965619545826468</v>
       </c>
       <c r="E90">
-        <v>-0.1159211137244116</v>
+        <v>-0.09576806525672261</v>
       </c>
       <c r="F90">
-        <v>-0.009577189852661259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.02484648244028453</v>
+      </c>
+      <c r="G90">
+        <v>0.07642946047113612</v>
+      </c>
+      <c r="H90">
+        <v>-0.003597174115234408</v>
+      </c>
+      <c r="I90">
+        <v>0.01525687219219055</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2868060767410234</v>
+        <v>0.2811360640014874</v>
       </c>
       <c r="C91">
-        <v>0.04697976091673523</v>
+        <v>-0.0616373586947507</v>
       </c>
       <c r="D91">
-        <v>-0.1125996773073052</v>
+        <v>-0.08596813783225336</v>
       </c>
       <c r="E91">
-        <v>0.05951578398042633</v>
+        <v>0.1289503844277346</v>
       </c>
       <c r="F91">
-        <v>0.2451370309248572</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2514148804536827</v>
+      </c>
+      <c r="G91">
+        <v>0.04107360951949154</v>
+      </c>
+      <c r="H91">
+        <v>-0.06974214905605336</v>
+      </c>
+      <c r="I91">
+        <v>-0.02103434380553663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1284228265318539</v>
+        <v>0.1889864262183583</v>
       </c>
       <c r="C92">
-        <v>0.06586775934179676</v>
+        <v>0.1299517957489545</v>
       </c>
       <c r="D92">
-        <v>0.3091985720519159</v>
+        <v>0.2965636695632313</v>
       </c>
       <c r="E92">
-        <v>-0.114106397780085</v>
+        <v>-0.1151101528407789</v>
       </c>
       <c r="F92">
-        <v>0.03063707729765779</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09182413676843217</v>
+      </c>
+      <c r="G92">
+        <v>0.210108631292887</v>
+      </c>
+      <c r="H92">
+        <v>-0.01209327601774103</v>
+      </c>
+      <c r="I92">
+        <v>-0.05752800286285734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.09384078312045133</v>
+        <v>0.1300267237537417</v>
       </c>
       <c r="C93">
-        <v>0.1090883609154552</v>
+        <v>0.1257088936498717</v>
       </c>
       <c r="D93">
-        <v>0.3367010269226258</v>
+        <v>0.3563212420802058</v>
       </c>
       <c r="E93">
-        <v>-0.154193753738626</v>
+        <v>-0.1435199225186145</v>
       </c>
       <c r="F93">
-        <v>0.0562216612583603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.04581893006688362</v>
+      </c>
+      <c r="G93">
+        <v>0.0236675652202404</v>
+      </c>
+      <c r="H93">
+        <v>0.0365648776929267</v>
+      </c>
+      <c r="I93">
+        <v>0.04848593145749638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2745304034518273</v>
+        <v>0.2992508817228698</v>
       </c>
       <c r="C94">
-        <v>0.08877280739855543</v>
+        <v>-0.04377085410422579</v>
       </c>
       <c r="D94">
-        <v>0.005273791682602866</v>
+        <v>-0.00495649610233277</v>
       </c>
       <c r="E94">
-        <v>0.005967739662346522</v>
+        <v>0.1386805462005566</v>
       </c>
       <c r="F94">
-        <v>0.2318907813938179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2768481833597725</v>
+      </c>
+      <c r="G94">
+        <v>0.02313263114187354</v>
+      </c>
+      <c r="H94">
+        <v>-0.2252380148669686</v>
+      </c>
+      <c r="I94">
+        <v>-0.02385286537188771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.147575097252188</v>
+        <v>0.1228557962427506</v>
       </c>
       <c r="C95">
-        <v>-0.01717799282167897</v>
+        <v>-0.1130630862297141</v>
       </c>
       <c r="D95">
-        <v>-0.2024500084528769</v>
+        <v>-0.04776115747388853</v>
       </c>
       <c r="E95">
-        <v>0.02741522726404741</v>
+        <v>0.04899142938332729</v>
       </c>
       <c r="F95">
-        <v>0.4223271170937904</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08229444667245779</v>
+      </c>
+      <c r="G95">
+        <v>0.1791462164969571</v>
+      </c>
+      <c r="H95">
+        <v>0.864832247088394</v>
+      </c>
+      <c r="I95">
+        <v>0.3179611223048749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2204121259870451</v>
+        <v>0.2234418967634962</v>
       </c>
       <c r="C98">
-        <v>0.0402704907678063</v>
+        <v>-0.04872433429787847</v>
       </c>
       <c r="D98">
-        <v>0.0187437520799856</v>
+        <v>0.05491227400864727</v>
       </c>
       <c r="E98">
-        <v>-0.0943593326630745</v>
+        <v>-0.02481082451554604</v>
       </c>
       <c r="F98">
-        <v>-0.09120294138406228</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2086521948940967</v>
+      </c>
+      <c r="G98">
+        <v>-0.379558933459798</v>
+      </c>
+      <c r="H98">
+        <v>0.04512443157945084</v>
+      </c>
+      <c r="I98">
+        <v>0.03846041266927067</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.005123704364196916</v>
+        <v>0.01467340041885963</v>
       </c>
       <c r="C101">
-        <v>0.01868808561006163</v>
+        <v>-0.009062811547181974</v>
       </c>
       <c r="D101">
-        <v>-0.06395290428099133</v>
+        <v>-0.02414877848322749</v>
       </c>
       <c r="E101">
-        <v>0.03929936276887906</v>
+        <v>0.03709410758279168</v>
       </c>
       <c r="F101">
-        <v>-0.02594945660416023</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07655870842436348</v>
+      </c>
+      <c r="G101">
+        <v>0.1113665454731276</v>
+      </c>
+      <c r="H101">
+        <v>-0.02558859877390824</v>
+      </c>
+      <c r="I101">
+        <v>0.114587985462453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09473716258307897</v>
+        <v>0.113449491343704</v>
       </c>
       <c r="C102">
-        <v>0.02034906477913885</v>
+        <v>-0.01782477781975639</v>
       </c>
       <c r="D102">
-        <v>-0.04830995446129627</v>
+        <v>-0.03915199099818571</v>
       </c>
       <c r="E102">
-        <v>0.04182658986886522</v>
+        <v>0.06040932580546872</v>
       </c>
       <c r="F102">
-        <v>0.08986211531080288</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1066211834947736</v>
+      </c>
+      <c r="G102">
+        <v>0.01155678727867623</v>
+      </c>
+      <c r="H102">
+        <v>-0.01073658345507378</v>
+      </c>
+      <c r="I102">
+        <v>-0.01742050478887923</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01983710311949134</v>
+        <v>0.02666537124127396</v>
       </c>
       <c r="C103">
-        <v>0.01088065356417654</v>
+        <v>0.003515912322450817</v>
       </c>
       <c r="D103">
-        <v>-0.004132128280980066</v>
+        <v>-0.01118577271784061</v>
       </c>
       <c r="E103">
-        <v>0.0075909799786888</v>
+        <v>0.01962373908254772</v>
       </c>
       <c r="F103">
-        <v>0.02174766726723511</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01956823441592121</v>
+      </c>
+      <c r="G103">
+        <v>0.01680021668004794</v>
+      </c>
+      <c r="H103">
+        <v>0.001573312018519526</v>
+      </c>
+      <c r="I103">
+        <v>-0.01774328881135596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
